--- a/root_node/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -437,13 +437,13 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>1.910210371017456</v>
+        <v>0.1630566120147705</v>
       </c>
       <c r="F1" t="n">
         <v>1</v>
       </c>
       <c r="G1" t="n">
-        <v>107.3121005157036</v>
+        <v>107.3095058550913</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>1.682416677474976</v>
+        <v>0.1584687232971191</v>
       </c>
       <c r="L1" t="n">
         <v>1</v>
       </c>
       <c r="M1" t="n">
-        <v>107.3121049495973</v>
+        <v>107.3095058550911</v>
       </c>
       <c r="N1" t="inlineStr">
         <is>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>1.788679361343384</v>
+        <v>0.1634979248046875</v>
       </c>
       <c r="R1" t="n">
         <v>1</v>
       </c>
       <c r="S1" t="n">
-        <v>107.3121024893848</v>
+        <v>107.3095060801834</v>
       </c>
       <c r="T1" t="inlineStr">
         <is>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.578160524368286</v>
+        <v>0.0105586051940918</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004334339695723806</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.795062780380249</v>
+        <v>0.009966611862182617</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.730207681655884</v>
+        <v>0.009949445724487305</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004337989697508755</v>
+        <v>0</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5382153987884521</v>
+        <v>0.2998192310333252</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3266413965897456</v>
+        <v>0.183688535595164</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.551440954208374</v>
+        <v>0.3022089004516602</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3281869128582176</v>
+        <v>0.1836885355951517</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.5534770488739014</v>
+        <v>0.3014814853668213</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.33869891773219</v>
+        <v>0.1836885355951517</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.6470627784729</v>
+        <v>0.7416069507598877</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>548.1144050012297</v>
+        <v>548.6590961473746</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1.610450744628906</v>
+        <v>0.716843843460083</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>537.5827476414719</v>
+        <v>882.7154822717209</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.644539833068848</v>
+        <v>0.6156508922576904</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>550.4967238281349</v>
+        <v>1024.599056417049</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01918959617614746</v>
+        <v>0.01758193969726562</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.01894068717956543</v>
+        <v>0.01740932464599609</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1.983712434768677</v>
+        <v>0.03724122047424316</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.891019344329834</v>
+        <v>0.343419075012207</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01048353530877584</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>4.509567737579346</v>
+        <v>0.1060667037963867</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01043793847253191</v>
+        <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>2.861936807632446</v>
+        <v>0.0102541446685791</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007790053402311891</v>
+        <v>0</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03231382369995117</v>
+        <v>0.03056001663208008</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.03054261207580566</v>
+        <v>0.03017640113830566</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.03059220314025879</v>
+        <v>0.03016495704650879</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03048133850097656</v>
+        <v>0.03074860572814941</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.03030681610107422</v>
+        <v>0.03002405166625977</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0.05143976211547852</v>
+        <v>0.03003334999084473</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.113603353500366</v>
+        <v>0.07029223442077637</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4.393721789264381e-05</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2.290245056152344</v>
+        <v>0.07295465469360352</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>4.393731363684732e-05</v>
+        <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>2.259482622146606</v>
+        <v>0.06784391403198242</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0004208590577477472</v>
+        <v>0.0003769216613206221</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.158029317855835</v>
+        <v>0.1120820045471191</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.19866832488819</v>
+        <v>0.1952890793906599</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1208,17 +1208,17 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2.1954665184021</v>
+        <v>0.1031913757324219</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>199.9848817723266</v>
+        <v>0.1952078257691957</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1232,17 +1232,17 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>2.478516101837158</v>
+        <v>0.08498430252075195</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4561466245047</v>
+        <v>0.1288696617210744</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.657011985778809</v>
+        <v>0.3522517681121826</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003564683127298006</v>
+        <v>0.001044690268555133</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.19208812713623</v>
+        <v>0.3129892349243164</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00371485206328623</v>
+        <v>0.001194855420431786</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>1.871799230575562</v>
+        <v>0.2927529811859131</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003714791219492763</v>
+        <v>0.001194794578171524</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.25871896743774</v>
+        <v>0.2809669971466064</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001334883833076546</v>
+        <v>0.0002603494363773118</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>20.56582093238831</v>
+        <v>0.2791512012481689</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.000260304260276676</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>totalnodelimit</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>4.691641569137573</v>
+        <v>0.1845283508300781</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001334783835413559</v>
+        <v>0</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>

--- a/root_node/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +592,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -669,6 +681,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +770,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -835,6 +859,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -918,6 +948,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1001,6 +1037,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1084,6 +1126,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1167,6 +1215,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1250,6 +1304,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1333,6 +1393,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1414,6 +1480,1620 @@
       <c r="U12" t="inlineStr">
         <is>
           <t>optimal</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1122164726257324</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.187874433876659</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2247908115386963</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.05488543982591518</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07503509521484375</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>259.4077561179847</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01336097717285156</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01164913177490234</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01532411575317383</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1647827625274658</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>107.3095058550913</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1600167751312256</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>107.3095058550911</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1646096706390381</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>107.3095060801834</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>0.1101603507995605</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.187874433876659</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01080584526062012</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01038217544555664</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.01018595695495605</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>0.009624719619750977</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3019652366638184</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.183688535595164</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3027274608612061</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1836885355951517</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3039093017578125</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1836885355951517</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2260100841522217</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.05488543982591518</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7501785755157471</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>548.6590961473746</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7186050415039062</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>882.7154822717209</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6743326187133789</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>545.9571513645877</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>0.4378914833068848</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5.103604504308651</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01804590225219727</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01772809028625488</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.03796267509460449</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>0.07527399063110352</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>259.4077561179847</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3474338054656982</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1090302467346191</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.01057839393615723</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>0.009658575057983398</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03158020973205566</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.03066229820251465</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.03067612648010254</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>0.01343178749084473</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03057765960693359</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.03074216842651367</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.03067851066589355</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>0.01378059387207031</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07374787330627441</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07461977005004883</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.07114124298095703</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0003769216613206221</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01156091690063477</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1147875785827637</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1952890793906599</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1057529449462891</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1952078257691957</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.08755731582641602</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.1288696617210744</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>0.1161289215087891</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.1312477543659745</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3572847843170166</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001044690268555133</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3142075538635254</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.001194855420431786</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3272547721862793</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.001194855445236742</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>0.01525187492370605</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2880358695983887</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0002603494363773118</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2819015979766846</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.000260304260276676</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.2921950817108154</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0002603040081678882</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>0.2754199504852295</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.0002602965982478587</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
         </is>
       </c>
     </row>

--- a/root_node/exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3097,6 +3097,642 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1598715782165527</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>107.3095058765962</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.009452581405639648</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3005847930908203</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1836885277591269</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7081570625305176</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>544.036649521805</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01575589179992676</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1053602695465088</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02892255783081055</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02872133255004883</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.07276511192321777</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1112852096557617</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1948045620331752</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.31882643699646</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001190844117218569</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2486710548400879</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.000260304260276676</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
